--- a/spider/dianping_hotel_hk/大众点评数据需求.xlsx
+++ b/spider/dianping_hotel_hk/大众点评数据需求.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="122">
   <si>
     <t>dp_shops</t>
   </si>
@@ -189,9 +189,6 @@
     <t>favourite</t>
   </si>
   <si>
-    <t>inappropriate</t>
-  </si>
-  <si>
     <t>datetime</t>
   </si>
   <si>
@@ -231,9 +228,6 @@
     <t>收藏</t>
   </si>
   <si>
-    <t>不当内容</t>
-  </si>
-  <si>
     <t>members</t>
   </si>
   <si>
@@ -358,6 +352,46 @@
   </si>
   <si>
     <t>粉丝编号</t>
+  </si>
+  <si>
+    <t>memberMark</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>member是否已查询标记</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>room</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkinTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>入住时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>picUrl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -535,12 +569,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -568,15 +596,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -585,6 +604,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -891,7 +925,7 @@
   <dimension ref="A3:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -902,12 +936,12 @@
     <col min="5" max="6" width="14.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.75" style="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.625" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.75" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22.375" style="1" customWidth="1"/>
     <col min="15" max="15" width="15.625" style="2" customWidth="1"/>
     <col min="16" max="16" width="10.375" style="2" customWidth="1"/>
     <col min="17" max="17" width="13.75" style="2" customWidth="1"/>
@@ -917,504 +951,516 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:21">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="13"/>
+      <c r="N4" s="12" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="14" t="s">
+      <c r="A5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="13"/>
+      <c r="N5" s="12" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="13"/>
+      <c r="N6" s="12" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
+      <c r="I8" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
+      <c r="A9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
+      <c r="I10" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
       <c r="O11" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:21" ht="27">
+      <c r="A12" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="G12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="H12" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="I12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="J12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="K12" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="L12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="M12" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="M12" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="N12" s="14" t="s">
+      <c r="N12" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="12" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="14" t="s">
+      <c r="L13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="23" t="s">
+      <c r="B14" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="C14" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="23" t="s">
+      <c r="E14" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="G14" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="H14" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="I14" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="J14" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="K14" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="L14" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="23" t="s">
+      <c r="M14" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="M14" s="23" t="s">
+      <c r="N14" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="N14" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>50</v>
       </c>
       <c r="K16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="N16" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="O16" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="P16" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="P16" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="Q16" s="8" t="s">
         <v>56</v>
       </c>
       <c r="R16" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="T16" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="S16" s="8" t="s">
+      <c r="U16" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="T16" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="U16" s="8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1452,7 +1498,7 @@
         <v>15</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>14</v>
@@ -1484,78 +1530,78 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="J18" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="K18" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="L18" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="M18" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="N18" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="O18" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="P18" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="R18" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="O18" s="8" t="s">
+      <c r="S18" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="T18" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="P18" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q18" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="R18" s="8" t="s">
+      <c r="U18" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="S18" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="T18" s="8" t="s">
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="U18" s="8" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
@@ -1564,13 +1610,13 @@
         <v>48</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1589,16 +1635,16 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
